--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_231.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_231.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,142 +488,149 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_65</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3653846153846154</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:maj', 'D:min', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74)]</t>
+          <t>[['C#', 'F#:min/5', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:05.440000', '0:00:09.100000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:19.910000', '0:01:26.123000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.94, 67.8)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.18, 61.0)]</t>
+          <t>[('0:00:01.980000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.64, 23.8)]</t>
+          <t>[['C:min', 'G:7', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.38, 21.84)]</t>
+          <t>[('0:00:02.580000', '0:00:07.080000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:10.120000', '0:00:27.180000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -626,579 +638,526 @@
           <t>schubert-winterreise_168</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[('0:00:25.480000', '0:00:32.800000'), ('0:01:14.500000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:28.480000', '0:01:40.380000'), ('0:00:40.380000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.02, 8.8)]</t>
+          <t>[('0:02:02.780000', '0:02:05')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07023809523809524</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
+          <t>[['F#', 'B', 'B/7']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
+          <t>[('0:01:16.889251', '0:01:20.407074')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:04.940612', '0:00:06.577619')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[('0:00:14.200000', '0:00:18.800000'), ('0:00:31.740000', '0:00:33.880000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:12.020000', '0:00:25.140000'), ('0:01:05.900000', '0:01:12.440000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:01:03.100000', '0:01:10.340000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(14.52, 59.64)]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.82, 52.64)]</t>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(32.7, 45.64)]</t>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.7, 109.5)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj'], ['A:7', 'D:min', 'C:7', 'F:maj', 'A:maj/C#', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.3, 113.78)]</t>
+          <t>[('0:00:00.220000', '0:00:20.820000'), ('0:00:55.840000', '0:01:17.800000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(13.66, 17.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(3.34, 6.82)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
